--- a/Data/Input/jira_Ticket_demo_12.xlsx
+++ b/Data/Input/jira_Ticket_demo_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786FBC36-C077-4B0B-ABB1-9B0093118A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6A3B01-02F1-4BA1-B10C-E9C2203A6471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED48DC4C-7C44-4E45-96E5-E7DC99A3E86A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Ticket Type</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>the program should be able to receive mails and read them</t>
-  </si>
-  <si>
-    <t>Lucille Kaleha</t>
   </si>
   <si>
     <t>Bloker</t>
@@ -448,7 +445,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,11 +532,8 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
